--- a/docs/manual-machine-checks-overview.xlsx
+++ b/docs/manual-machine-checks-overview.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1623230315" val="982" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1623230315" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1623230315"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1623230315"/>
+      <pm:revision xmlns:pm="smNativeData" day="1623230563" val="982" rev="124" rev64="64" revOS="1" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1623230563" fixedDigits="0" showNotice="1" showProtection="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1623230563"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1623230563"/>
     </ext>
   </extLst>
 </workbook>
@@ -101,7 +101,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1623230315" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1623230563" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -116,7 +116,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1623230315" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1623230563" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -132,7 +132,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1623230315" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1623230563" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -147,7 +147,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1623230315" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1623230563" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="220" lang="default" weight="bold"/>
@@ -163,7 +163,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1623230315" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1623230563" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -185,7 +185,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1623230315" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1623230563" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -210,7 +210,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1623230315"/>
+          <pm:border xmlns:pm="smNativeData" id="1623230563"/>
         </ext>
       </extLst>
     </border>
@@ -229,7 +229,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1623230315"/>
+          <pm:border xmlns:pm="smNativeData" id="1623230563"/>
         </ext>
       </extLst>
     </border>
@@ -248,7 +248,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1623230315">
+          <pm:border xmlns:pm="smNativeData" id="1623230563">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -261,11 +261,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -273,7 +282,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1623230315" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1623230563" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -540,14 +549,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D1" sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
   <cols>
     <col min="1" max="1" width="2.414414" customWidth="1"/>
     <col min="2" max="2" width="29.828829" customWidth="1"/>
-    <col min="3" max="3" width="92.252252" customWidth="1"/>
+    <col min="3" max="3" width="32.243243" customWidth="1" style="4"/>
     <col min="4" max="4" width="14.774775" customWidth="1"/>
   </cols>
   <sheetData>
@@ -558,7 +567,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -572,7 +581,7 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -586,7 +595,7 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -600,7 +609,7 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -614,7 +623,7 @@
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -628,7 +637,7 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -642,7 +651,7 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -653,7 +662,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1623230315" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1623230563" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -662,14 +671,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1623230315" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1623230315" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1623230563" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1623230563" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1623230315" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1623230563" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
